--- a/biology/Zoologie/Eretmapodites/Eretmapodites.xlsx
+++ b/biology/Zoologie/Eretmapodites/Eretmapodites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eretmapodites sont des moustiques relevant de la sous-famille des Culicinae et de la tribu des Aedini. Ce genre rassemble 48 espèces uniquement présentes en région afrotropicale, y compris Madagascar et Comores. C'est le seul genre de moustique dont la zone de répartition est strictement restreinte à la région afrotropicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes sont de taille plutôt grande (5,5 à 7 mm). Ils ont une coloration thoracique totalement ou partiellement jaunâtre et de grandes bandes métalliques argentées le long des tergites abdominaux noirs, très caractéristiques du genre. 
 Leurs yeux sont nettement séparée, le proboscis est relativement long, les antennes atteignant seulement les deux tiers de sa longueur pour les deux sexes. Les femelles ont des antennes relativement plumeuses, comparativement aux autres genres proches. Le thorax est d'aspect jaunâtre avec des plaques d'écailles jaunes ou métalliques. Ils possèdent des soies postspiraculaires comme tous les Aedini.
@@ -546,7 +560,9 @@
           <t>Biologie et importance médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des espèces forestières se rencontrant dans les endroits ombragées comme les bananeraies ou cocoteraies où ils piquent les mammifères dont occasionnellement l'homme durant la journée ou au crépuscule. Ils piquent près du sol au niveau des genoux, dans les zones ombragées. Toutefois, ces moustiques ne pénètrent pas dans les habitations.
 Les larves se développent dans divers gites de petite contenance comme les feuilles de bananiers à terre, les aisselles de feuilles (bananier et autres), les coquilles d'escargot, les écales de fruits, les bambous et petits récipients artificiels mais rarement dans les trous d'arbre. Les larves de certaines espèces peuvent être prédatrices de larves de moustiques ou autres diptères, de nématodes. C'est la cas de Er. dracaenae prédateur des larves de Aedes simpsoni dans les bananeraies centrafricaines (Pajot, 1975).
@@ -579,7 +595,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Haddow (1946) sur la base de l'ornementation des genitalia des mâles, répartie les espèces en divers groupes : Chrysogaster, Inornatus, Oedipodeos, Leucopous, Plioleucous et Quinquevittatus.
 Entre parenthèses : les stades connus M=mâle, F=femelle, N=nymphe, L=larve ainsi que leur répartition.
